--- a/data/datacall_template/00template/Eel_Data_Call_Annex10_Other_Sampling_Data.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex10_Other_Sampling_Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\wg_WGEEL\data\datacall_template\00template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A300B40-AB63-4386-B919-A813E9E7DFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16710" windowHeight="15360" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16710" windowHeight="14370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -42,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Cédric Briand</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{840D83F7-5146-4625-B7BD-E2B98DA84BC6}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2299,15 +2293,9 @@
     <t>Historical EMU for Sweden, used for historical data</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>VA_total</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>VA_Lazi</t>
   </si>
   <si>
@@ -2513,12 +2501,18 @@
   </si>
   <si>
     <t>Indentifier used by data provider to identify the fish in its national database. To avoid confusion of id among countries, please add your cou_code and the year of the datacall before the identifier. For example, fish XXX from France collected in datacall dc2023 should be named FR23_XXX</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
@@ -2910,17 +2904,17 @@
   <cellStyles count="13">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 5 2" xfId="12" xr:uid="{A7A9D764-10FB-40C1-B938-2BA6A10241C2}"/>
-    <cellStyle name="Normale 2_DCF_Guidelines_Standard-Tables_Version-2009 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="XLConnect.Boolean" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="XLConnect.DateTime" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="XLConnect.Header" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="XLConnect.Numeric" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="XLConnect.String" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5 2" xfId="12"/>
+    <cellStyle name="Normale 2_DCF_Guidelines_Standard-Tables_Version-2009 2" xfId="6"/>
+    <cellStyle name="XLConnect.Boolean" xfId="7"/>
+    <cellStyle name="XLConnect.DateTime" xfId="8"/>
+    <cellStyle name="XLConnect.Header" xfId="9"/>
+    <cellStyle name="XLConnect.Numeric" xfId="10"/>
+    <cellStyle name="XLConnect.String" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3023,7 +3017,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3265,7 @@
         <xdr:cNvPr id="9" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3364,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235F1AFE-8223-4035-AAAF-B2C22A1DCBFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235F1AFE-8223-4035-AAAF-B2C22A1DCBFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3411,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617983-368F-4B92-9841-7591F16BB9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617983-368F-4B92-9841-7591F16BB9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3458,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5FA771-E480-477C-9946-3AEEFD9673F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5FA771-E480-477C-9946-3AEEFD9673F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3506,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3558,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3610,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3662,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3714,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3766,7 @@
         <xdr:cNvPr id="18" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3818,7 @@
         <xdr:cNvPr id="19" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3876,7 +3870,7 @@
         <xdr:cNvPr id="20" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3928,7 +3922,7 @@
         <xdr:cNvPr id="21" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,7 +3979,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4073,7 +4067,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4161,7 +4155,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4249,7 +4243,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,7 +4331,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4425,7 +4419,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4513,7 +4507,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4601,7 +4595,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4745,26 +4739,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4797,23 +4774,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4989,27 +4949,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AMJ79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
-    <col min="4" max="256" width="20.265625" style="1" customWidth="1"/>
-    <col min="257" max="1024" width="11.3984375" style="1"/>
+    <col min="4" max="256" width="20.28515625" style="1" customWidth="1"/>
+    <col min="257" max="1024" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5025,7 +4983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5033,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +4999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -5049,7 +5007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -5057,7 +5015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -5065,7 +5023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -5073,7 +5031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -5081,7 +5039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5089,7 +5047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
@@ -5097,7 +5055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
@@ -5105,7 +5063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
@@ -5113,11 +5071,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
@@ -5125,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -5133,7 +5091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -5142,7 +5100,7 @@
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
@@ -5150,7 +5108,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
@@ -5158,7 +5116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
@@ -5166,7 +5124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
@@ -5174,7 +5132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -5182,7 +5140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>38</v>
       </c>
@@ -5190,7 +5148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -5198,7 +5156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
@@ -5206,7 +5164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -5214,7 +5172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>45</v>
       </c>
@@ -5222,7 +5180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -5230,7 +5188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>49</v>
       </c>
@@ -5238,7 +5196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>51</v>
       </c>
@@ -5246,7 +5204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -5254,7 +5212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>55</v>
       </c>
@@ -5262,7 +5220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
@@ -5270,7 +5228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>59</v>
       </c>
@@ -5278,7 +5236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>61</v>
       </c>
@@ -5286,7 +5244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>63</v>
       </c>
@@ -5294,7 +5252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
@@ -5302,7 +5260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
@@ -5310,7 +5268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>69</v>
       </c>
@@ -5318,7 +5276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -5326,7 +5284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>73</v>
       </c>
@@ -5334,7 +5292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -5342,7 +5300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>77</v>
       </c>
@@ -5350,7 +5308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>79</v>
       </c>
@@ -5358,7 +5316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>81</v>
       </c>
@@ -5366,7 +5324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>83</v>
       </c>
@@ -5374,7 +5332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -5383,10 +5341,10 @@
       </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>87</v>
       </c>
@@ -5394,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>88</v>
       </c>
@@ -5402,15 +5360,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>2</v>
       </c>
@@ -5418,7 +5376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>90</v>
       </c>
@@ -5426,7 +5384,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>690</v>
       </c>
@@ -5434,7 +5392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>92</v>
       </c>
@@ -5442,7 +5400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>133</v>
       </c>
@@ -5450,7 +5408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>95</v>
       </c>
@@ -5458,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>96</v>
       </c>
@@ -5466,7 +5424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>98</v>
       </c>
@@ -5474,7 +5432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>39</v>
       </c>
@@ -5482,7 +5440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>41</v>
       </c>
@@ -5490,7 +5448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>43</v>
       </c>
@@ -5498,7 +5456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>103</v>
       </c>
@@ -5506,7 +5464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>105</v>
       </c>
@@ -5514,7 +5472,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>107</v>
       </c>
@@ -5522,7 +5480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>109</v>
       </c>
@@ -5530,7 +5488,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>111</v>
       </c>
@@ -5538,7 +5496,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>63</v>
       </c>
@@ -5546,7 +5504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>65</v>
       </c>
@@ -5554,7 +5512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>67</v>
       </c>
@@ -5562,7 +5520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>69</v>
       </c>
@@ -5570,7 +5528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>71</v>
       </c>
@@ -5578,7 +5536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>116</v>
       </c>
@@ -5586,7 +5544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>118</v>
       </c>
@@ -5594,7 +5552,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>77</v>
       </c>
@@ -5602,7 +5560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>79</v>
       </c>
@@ -5610,7 +5568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>81</v>
       </c>
@@ -5626,7 +5584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
@@ -5636,13 +5594,13 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1024" width="9.1328125" style="40"/>
-    <col min="1025" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1024" width="9.140625" style="40"/>
+    <col min="1025" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>88</v>
       </c>
@@ -5743,7 +5701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
@@ -5753,13 +5711,13 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.265625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="1025" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1025" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29 1025:1025" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29 1025:1025" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>88</v>
       </c>
@@ -5857,28 +5815,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073DE77-D606-4791-A2BA-3A8ABE1685DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" style="52" customWidth="1"/>
-    <col min="2" max="3" width="11.3984375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" style="52" customWidth="1"/>
-    <col min="5" max="1025" width="11.3984375" style="52" customWidth="1"/>
-    <col min="1026" max="16384" width="10.6640625" style="52"/>
+    <col min="1" max="1" width="17.7109375" style="52" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="52" customWidth="1"/>
+    <col min="5" max="1025" width="11.42578125" style="52" customWidth="1"/>
+    <col min="1026" max="16384" width="10.7109375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>135</v>
@@ -5887,1762 +5845,1763 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>697</v>
+        <v>765</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
         <v>145</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>697</v>
+        <v>766</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
         <v>157</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="55" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>704</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B18" s="53"/>
       <c r="C18" s="53" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="53" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="53" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="53"/>
+        <v>169</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>702</v>
+      </c>
       <c r="C25" s="53" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="53" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>703</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B30" s="53"/>
       <c r="C30" s="53" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53" t="s">
         <v>180</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53" t="s">
         <v>180</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="53"/>
+        <v>189</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>701</v>
+      </c>
       <c r="C41" s="53" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B45" s="53"/>
       <c r="C45" s="53" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B46" s="53"/>
       <c r="C46" s="53" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B47" s="53"/>
       <c r="C47" s="53" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B48" s="53"/>
       <c r="C48" s="53" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B51" s="53"/>
       <c r="C51" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B58" s="53"/>
       <c r="C58" s="53" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="53" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B60" s="53"/>
       <c r="C60" s="53" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="53" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="53" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="53" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B64" s="53"/>
       <c r="C64" s="53" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B65" s="53"/>
       <c r="C65" s="53" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B66" s="53"/>
       <c r="C66" s="53" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B67" s="53"/>
       <c r="C67" s="53" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B68" s="53"/>
       <c r="C68" s="53" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B69" s="53"/>
       <c r="C69" s="53" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B70" s="53"/>
       <c r="C70" s="53" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="53" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="53" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="53" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B74" s="53"/>
       <c r="C74" s="53" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="53" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B76" s="53"/>
       <c r="C76" s="53" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B77" s="53"/>
       <c r="C77" s="53" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B78" s="53"/>
       <c r="C78" s="53" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B80" s="53"/>
       <c r="C80" s="53" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B83" s="53"/>
       <c r="C83" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B85" s="53"/>
       <c r="C85" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="53" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B86" s="53"/>
       <c r="C86" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B87" s="53"/>
       <c r="C87" s="53" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B88" s="53"/>
       <c r="C88" s="53" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B89" s="53"/>
+        <v>245</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="C89" s="53" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="53" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B90" s="53"/>
       <c r="C90" s="53" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B91" s="53"/>
       <c r="C91" s="53" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="B92" s="53"/>
       <c r="C92" s="53" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="53" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="B93" s="53"/>
       <c r="C93" s="52" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="53" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="B94" s="53"/>
       <c r="C94" s="53" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B95" s="53"/>
       <c r="C95" s="53" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="B96" s="53"/>
       <c r="C96" s="53" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B97" s="53" t="s">
-        <v>694</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B97" s="53"/>
       <c r="C97" s="53" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="B98" s="53"/>
       <c r="C98" s="53" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="B99" s="53" t="s">
-        <v>702</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B99" s="53"/>
       <c r="C99" s="53" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="B100" s="53" t="s">
-        <v>701</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B100" s="53"/>
       <c r="C100" s="53" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="B101" s="53" t="s">
-        <v>700</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B101" s="53"/>
       <c r="C101" s="53" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="B102" s="53" t="s">
-        <v>699</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B102" s="53"/>
       <c r="C102" s="53" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="D102" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="53" t="s">
-        <v>698</v>
+        <v>261</v>
       </c>
       <c r="B103" s="53"/>
       <c r="C103" s="52" t="s">
-        <v>402</v>
+        <v>248</v>
       </c>
       <c r="D103" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="B104" s="53"/>
       <c r="C104" s="53" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="D104" s="52" t="s">
-        <v>695</v>
+        <v>766</v>
       </c>
       <c r="E104" s="54"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="53" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="B105" s="53"/>
       <c r="C105" s="53" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="D105" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="B106" s="53"/>
       <c r="C106" s="53" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="B107" s="53"/>
       <c r="C107" s="53" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="B108" s="53"/>
       <c r="C108" s="53" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="53" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="B109" s="53"/>
       <c r="C109" s="53" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D109" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="53" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="B110" s="53"/>
       <c r="C110" s="53" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="D110" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="53" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="B111" s="53"/>
       <c r="C111" s="53" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="D111" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="53" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="B112" s="53"/>
       <c r="C112" s="53" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="53" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="B113" s="53"/>
       <c r="C113" s="53" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="53" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="B114" s="53"/>
       <c r="C114" s="53" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="53" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="B115" s="53"/>
       <c r="C115" s="53" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="D115" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="53" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="B116" s="53"/>
       <c r="C116" s="53" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="53" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="B117" s="53"/>
       <c r="C117" s="53" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="53" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="B118" s="53"/>
       <c r="C118" s="53" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="53" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="B119" s="53"/>
       <c r="C119" s="53" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="D119" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="53" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="B120" s="53"/>
       <c r="C120" s="53" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="D120" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="53" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="B121" s="53"/>
       <c r="C121" s="53" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="D121" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="53" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="B122" s="53"/>
       <c r="C122" s="53" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="D122" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="53" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="B123" s="53"/>
       <c r="C123" s="53" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="D123" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="53" t="s">
-        <v>324</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B124" s="53"/>
       <c r="C124" s="53" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B125" s="53"/>
       <c r="C125" s="53" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="D125" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="53" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B126" s="53"/>
       <c r="C126" s="53" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D126" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="53" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B127" s="53"/>
       <c r="C127" s="53" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="D127" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="53" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B128" s="53"/>
       <c r="C128" s="53" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="D128" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="53" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B129" s="53"/>
       <c r="C129" s="53" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D129" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="B130" s="53"/>
+        <v>300</v>
+      </c>
+      <c r="B130" s="53" t="s">
+        <v>694</v>
+      </c>
       <c r="C130" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="D130" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="53" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B131" s="53"/>
       <c r="C131" s="53" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D131" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="53" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="B132" s="53"/>
       <c r="C132" s="53" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D132" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="B133" s="53"/>
+        <v>304</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>694</v>
+      </c>
       <c r="C133" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="D133" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="52" t="s">
-        <v>288</v>
+        <v>306</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>694</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="53" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B135" s="53"/>
       <c r="C135" s="53" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D135" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="53" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B136" s="53"/>
       <c r="C136" s="53" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D136" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="53" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B137" s="53"/>
       <c r="C137" s="53" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="D137" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B138" s="53"/>
       <c r="C138" s="52" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D138" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="B139" s="53"/>
+        <v>312</v>
+      </c>
+      <c r="B139" s="53" t="s">
+        <v>700</v>
+      </c>
       <c r="C139" s="53" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="B140" s="53"/>
+        <v>314</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>699</v>
+      </c>
       <c r="C140" s="53" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="B141" s="53"/>
+        <v>315</v>
+      </c>
+      <c r="B141" s="53" t="s">
+        <v>698</v>
+      </c>
       <c r="C141" s="53" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="B142" s="53"/>
+        <v>316</v>
+      </c>
+      <c r="B142" s="53" t="s">
+        <v>697</v>
+      </c>
       <c r="C142" s="53" t="s">
         <v>313</v>
       </c>
       <c r="D142" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B143" s="53"/>
       <c r="C143" s="53" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D143" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="53" t="s">
-        <v>696</v>
+        <v>318</v>
       </c>
       <c r="B144" s="53"/>
       <c r="C144" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="D144" s="52" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="D144" s="52" t="s">
+      <c r="D145" s="52" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="53" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="B145" s="53" t="s">
-        <v>694</v>
-      </c>
-      <c r="C145" s="53" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="B146" s="53" t="s">
-        <v>694</v>
-      </c>
+      <c r="B146" s="53"/>
       <c r="C146" s="53" t="s">
-        <v>301</v>
+        <v>402</v>
+      </c>
+      <c r="D146" s="52" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -7653,20 +7612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5D22F-6857-4DCE-A222-BF1D403FA12F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.3984375" style="52" customWidth="1"/>
-    <col min="1026" max="16384" width="10.6640625" style="52"/>
+    <col min="1" max="1025" width="11.42578125" style="52" customWidth="1"/>
+    <col min="1026" max="16384" width="10.7109375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>320</v>
       </c>
@@ -7681,7 +7640,7 @@
       </c>
       <c r="E1" s="58"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>138</v>
       </c>
@@ -7695,7 +7654,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>141</v>
       </c>
@@ -7709,7 +7668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>143</v>
       </c>
@@ -7723,7 +7682,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>145</v>
       </c>
@@ -7737,7 +7696,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>151</v>
       </c>
@@ -7751,7 +7710,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>153</v>
       </c>
@@ -7765,7 +7724,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>157</v>
       </c>
@@ -7779,7 +7738,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>168</v>
       </c>
@@ -7793,7 +7752,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>172</v>
       </c>
@@ -7807,7 +7766,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>174</v>
       </c>
@@ -7821,7 +7780,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>178</v>
       </c>
@@ -7835,7 +7794,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>180</v>
       </c>
@@ -7849,7 +7808,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>197</v>
       </c>
@@ -7863,7 +7822,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>200</v>
       </c>
@@ -7877,7 +7836,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>212</v>
       </c>
@@ -7891,7 +7850,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>228</v>
       </c>
@@ -7905,7 +7864,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>234</v>
       </c>
@@ -7919,7 +7878,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>236</v>
       </c>
@@ -7933,7 +7892,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>244</v>
       </c>
@@ -7947,7 +7906,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>246</v>
       </c>
@@ -7961,7 +7920,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>248</v>
       </c>
@@ -7975,7 +7934,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>270</v>
       </c>
@@ -7989,7 +7948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>272</v>
       </c>
@@ -8003,7 +7962,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>275</v>
       </c>
@@ -8017,7 +7976,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>278</v>
       </c>
@@ -8031,7 +7990,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>281</v>
       </c>
@@ -8045,7 +8004,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>283</v>
       </c>
@@ -8059,7 +8018,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>285</v>
       </c>
@@ -8073,7 +8032,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>287</v>
       </c>
@@ -8087,7 +8046,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>289</v>
       </c>
@@ -8101,7 +8060,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>291</v>
       </c>
@@ -8115,7 +8074,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>293</v>
       </c>
@@ -8129,7 +8088,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>190</v>
       </c>
@@ -8143,7 +8102,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>299</v>
       </c>
@@ -8157,7 +8116,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>301</v>
       </c>
@@ -8171,7 +8130,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>309</v>
       </c>
@@ -8185,7 +8144,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>311</v>
       </c>
@@ -8199,7 +8158,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>313</v>
       </c>
@@ -8213,7 +8172,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>319</v>
       </c>
@@ -8235,25 +8194,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68C3840-84E3-4635-9B82-B4D8F9B70D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="52"/>
-    <col min="2" max="11" width="11.3984375" style="52" customWidth="1"/>
-    <col min="12" max="14" width="10.6640625" style="52"/>
-    <col min="15" max="1026" width="11.3984375" style="52" customWidth="1"/>
-    <col min="1027" max="16384" width="10.6640625" style="52"/>
+    <col min="1" max="1" width="10.7109375" style="52"/>
+    <col min="2" max="11" width="11.42578125" style="52" customWidth="1"/>
+    <col min="12" max="14" width="10.7109375" style="52"/>
+    <col min="15" max="1026" width="11.42578125" style="52" customWidth="1"/>
+    <col min="1027" max="16384" width="10.7109375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B1" s="58" t="s">
         <v>403</v>
@@ -8283,16 +8242,16 @@
         <v>411</v>
       </c>
       <c r="K1" s="58" t="s">
+        <v>705</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="M1" s="58" t="s">
         <v>707</v>
       </c>
-      <c r="L1" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>71</v>
       </c>
@@ -8312,13 +8271,13 @@
         <v>414</v>
       </c>
       <c r="G2" s="53" t="s">
+        <v>708</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>709</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>710</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>712</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>510</v>
@@ -8327,7 +8286,7 @@
         <v>11827243389.3563</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>78</v>
       </c>
@@ -8347,10 +8306,10 @@
         <v>554</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>555</v>
@@ -8365,7 +8324,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>79</v>
       </c>
@@ -8385,13 +8344,13 @@
         <v>414</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>502</v>
@@ -8406,7 +8365,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>72</v>
       </c>
@@ -8426,13 +8385,13 @@
         <v>414</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J5" s="59" t="s">
         <v>509</v>
@@ -8447,7 +8406,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>73</v>
       </c>
@@ -8467,13 +8426,13 @@
         <v>414</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J6" s="59" t="s">
         <v>493</v>
@@ -8482,7 +8441,7 @@
         <v>682376100480.57898</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>74</v>
       </c>
@@ -8502,13 +8461,13 @@
         <v>414</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J7" s="59" t="s">
         <v>492</v>
@@ -8520,7 +8479,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>98</v>
       </c>
@@ -8540,13 +8499,13 @@
         <v>414</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J8" s="59" t="s">
         <v>504</v>
@@ -8558,7 +8517,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>99</v>
       </c>
@@ -8578,13 +8537,13 @@
         <v>414</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J9" s="59" t="s">
         <v>505</v>
@@ -8593,7 +8552,7 @@
         <v>313741454768.85699</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>75</v>
       </c>
@@ -8613,13 +8572,13 @@
         <v>414</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J10" s="59" t="s">
         <v>494</v>
@@ -8628,7 +8587,7 @@
         <v>316899098139.797</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>76</v>
       </c>
@@ -8648,10 +8607,10 @@
         <v>554</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>555</v>
@@ -8663,7 +8622,7 @@
         <v>5394501655010.5195</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>96</v>
       </c>
@@ -8683,13 +8642,13 @@
         <v>414</v>
       </c>
       <c r="G12" s="53" t="s">
+        <v>708</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>709</v>
+      </c>
+      <c r="I12" s="53" t="s">
         <v>710</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>712</v>
       </c>
       <c r="J12" s="59" t="s">
         <v>511</v>
@@ -8698,7 +8657,7 @@
         <v>422247977449.67603</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>113</v>
       </c>
@@ -8718,13 +8677,13 @@
         <v>414</v>
       </c>
       <c r="G13" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="I13" s="53" t="s">
         <v>720</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>721</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>722</v>
       </c>
       <c r="J13" s="59" t="s">
         <v>516</v>
@@ -8733,7 +8692,7 @@
         <v>3867382562514.3501</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>114</v>
       </c>
@@ -8753,13 +8712,13 @@
         <v>414</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J14" s="59" t="s">
         <v>501</v>
@@ -8768,7 +8727,7 @@
         <v>1695676630652.49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>77</v>
       </c>
@@ -8788,13 +8747,13 @@
         <v>414</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J15" s="59" t="s">
         <v>495</v>
@@ -8803,7 +8762,7 @@
         <v>485353423550.57703</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>100</v>
       </c>
@@ -8823,13 +8782,13 @@
         <v>414</v>
       </c>
       <c r="G16" s="53" t="s">
+        <v>722</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>723</v>
+      </c>
+      <c r="I16" s="53" t="s">
         <v>724</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>725</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>726</v>
       </c>
       <c r="J16" s="59" t="s">
         <v>459</v>
@@ -8838,7 +8797,7 @@
         <v>220899128413.51099</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>80</v>
       </c>
@@ -8858,13 +8817,13 @@
         <v>414</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J17" s="59" t="s">
         <v>496</v>
@@ -8873,7 +8832,7 @@
         <v>1184538445204.4299</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>106</v>
       </c>
@@ -8893,13 +8852,13 @@
         <v>414</v>
       </c>
       <c r="G18" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="I18" s="53" t="s">
         <v>720</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>722</v>
       </c>
       <c r="J18" s="59" t="s">
         <v>514</v>
@@ -8908,7 +8867,7 @@
         <v>642349466314.66003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
         <v>125</v>
       </c>
@@ -8928,13 +8887,13 @@
         <v>545</v>
       </c>
       <c r="G19" s="53" t="s">
+        <v>725</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I19" s="53" t="s">
         <v>727</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>728</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>729</v>
       </c>
       <c r="J19" s="59" t="s">
         <v>552</v>
@@ -8943,7 +8902,7 @@
         <v>654991036258.36694</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>97</v>
       </c>
@@ -8963,13 +8922,13 @@
         <v>414</v>
       </c>
       <c r="G20" s="53" t="s">
+        <v>708</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>709</v>
+      </c>
+      <c r="I20" s="53" t="s">
         <v>710</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>712</v>
       </c>
       <c r="J20" s="59" t="s">
         <v>512</v>
@@ -8978,7 +8937,7 @@
         <v>41321419919.626198</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
         <v>166</v>
       </c>
@@ -8998,10 +8957,10 @@
         <v>414</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I21" s="53" t="s">
         <v>542</v>
@@ -9013,7 +8972,7 @@
         <v>3956846105365.0098</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>105</v>
       </c>
@@ -9033,13 +8992,13 @@
         <v>554</v>
       </c>
       <c r="G22" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I22" s="53" t="s">
         <v>731</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>732</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>733</v>
       </c>
       <c r="J22" s="59" t="s">
         <v>559</v>
@@ -9048,7 +9007,7 @@
         <v>279189043353.84497</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>117</v>
       </c>
@@ -9068,13 +9027,13 @@
         <v>554</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H23" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I23" s="53" t="s">
         <v>732</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>734</v>
       </c>
       <c r="J23" s="59" t="s">
         <v>565</v>
@@ -9083,7 +9042,7 @@
         <v>81149107680.717102</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>101</v>
       </c>
@@ -9103,13 +9062,13 @@
         <v>414</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J24" s="59" t="s">
         <v>506</v>
@@ -9118,7 +9077,7 @@
         <v>98667922160.618607</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>102</v>
       </c>
@@ -9138,13 +9097,13 @@
         <v>414</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J25" s="59" t="s">
         <v>507</v>
@@ -9153,7 +9112,7 @@
         <v>846342412103.46399</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>103</v>
       </c>
@@ -9173,13 +9132,13 @@
         <v>414</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J26" s="59" t="s">
         <v>508</v>
@@ -9188,7 +9147,7 @@
         <v>286448212866.63501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
         <v>104</v>
       </c>
@@ -9208,13 +9167,13 @@
         <v>414</v>
       </c>
       <c r="G27" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="I27" s="53" t="s">
         <v>720</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>721</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>722</v>
       </c>
       <c r="J27" s="59" t="s">
         <v>513</v>
@@ -9223,7 +9182,7 @@
         <v>881394555828.87805</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
         <v>107</v>
       </c>
@@ -9243,13 +9202,13 @@
         <v>414</v>
       </c>
       <c r="G28" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="I28" s="53" t="s">
         <v>720</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>721</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>722</v>
       </c>
       <c r="J28" s="59" t="s">
         <v>515</v>
@@ -9258,7 +9217,7 @@
         <v>434666422776.43903</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>108</v>
       </c>
@@ -9278,13 +9237,13 @@
         <v>545</v>
       </c>
       <c r="G29" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>735</v>
+      </c>
+      <c r="I29" s="53" t="s">
         <v>736</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>737</v>
-      </c>
-      <c r="I29" s="53" t="s">
-        <v>738</v>
       </c>
       <c r="J29" s="59" t="s">
         <v>544</v>
@@ -9293,7 +9252,7 @@
         <v>2153313079917.8899</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
         <v>121</v>
       </c>
@@ -9313,13 +9272,13 @@
         <v>414</v>
       </c>
       <c r="G30" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J30" s="59" t="s">
         <v>520</v>
@@ -9328,7 +9287,7 @@
         <v>5197206508048.25</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
         <v>122</v>
       </c>
@@ -9348,13 +9307,13 @@
         <v>414</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I31" s="53" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J31" s="59" t="s">
         <v>523</v>
@@ -9363,7 +9322,7 @@
         <v>2439357816518.6099</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
         <v>123</v>
       </c>
@@ -9383,13 +9342,13 @@
         <v>414</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J32" s="59" t="s">
         <v>456</v>
@@ -9398,7 +9357,7 @@
         <v>1600757464658.6899</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="52">
         <v>124</v>
       </c>
@@ -9418,13 +9377,13 @@
         <v>414</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I33" s="53" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J33" s="59" t="s">
         <v>491</v>
@@ -9433,7 +9392,7 @@
         <v>467636809277.08099</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
         <v>109</v>
       </c>
@@ -9453,13 +9412,13 @@
         <v>554</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H34" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I34" s="53" t="s">
         <v>732</v>
-      </c>
-      <c r="I34" s="53" t="s">
-        <v>734</v>
       </c>
       <c r="J34" s="59" t="s">
         <v>566</v>
@@ -9468,7 +9427,7 @@
         <v>9930060670167.3105</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="52">
         <v>110</v>
       </c>
@@ -9488,13 +9447,13 @@
         <v>554</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H35" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I35" s="53" t="s">
         <v>732</v>
-      </c>
-      <c r="I35" s="53" t="s">
-        <v>734</v>
       </c>
       <c r="J35" s="59" t="s">
         <v>562</v>
@@ -9503,7 +9462,7 @@
         <v>385961797925.44702</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="52">
         <v>111</v>
       </c>
@@ -9523,13 +9482,13 @@
         <v>554</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H36" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I36" s="53" t="s">
         <v>732</v>
-      </c>
-      <c r="I36" s="53" t="s">
-        <v>734</v>
       </c>
       <c r="J36" s="59" t="s">
         <v>561</v>
@@ -9538,7 +9497,7 @@
         <v>378752335437.995</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="52">
         <v>112</v>
       </c>
@@ -9558,13 +9517,13 @@
         <v>414</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H37" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I37" s="53" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J37" s="59" t="s">
         <v>517</v>
@@ -9573,7 +9532,7 @@
         <v>655635852456.71399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="52">
         <v>115</v>
       </c>
@@ -9593,13 +9552,13 @@
         <v>545</v>
       </c>
       <c r="G38" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>735</v>
+      </c>
+      <c r="I38" s="53" t="s">
         <v>736</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>737</v>
-      </c>
-      <c r="I38" s="53" t="s">
-        <v>738</v>
       </c>
       <c r="J38" s="59" t="s">
         <v>546</v>
@@ -9608,7 +9567,7 @@
         <v>1696302714188.0901</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="52">
         <v>116</v>
       </c>
@@ -9628,13 +9587,13 @@
         <v>554</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H39" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I39" s="53" t="s">
         <v>732</v>
-      </c>
-      <c r="I39" s="53" t="s">
-        <v>734</v>
       </c>
       <c r="J39" s="59" t="s">
         <v>563</v>
@@ -9643,7 +9602,7 @@
         <v>85283982520.759796</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>118</v>
       </c>
@@ -9663,13 +9622,13 @@
         <v>414</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I40" s="53" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J40" s="59" t="s">
         <v>518</v>
@@ -9678,7 +9637,7 @@
         <v>344471053621.151</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>119</v>
       </c>
@@ -9698,13 +9657,13 @@
         <v>554</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H41" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I41" s="53" t="s">
         <v>732</v>
-      </c>
-      <c r="I41" s="53" t="s">
-        <v>734</v>
       </c>
       <c r="J41" s="59" t="s">
         <v>564</v>
@@ -9713,7 +9672,7 @@
         <v>135175004544.72701</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>120</v>
       </c>
@@ -9733,13 +9692,13 @@
         <v>554</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I42" s="53" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J42" s="59" t="s">
         <v>569</v>
@@ -9748,7 +9707,7 @@
         <v>7043515912715.1699</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>126</v>
       </c>
@@ -9768,13 +9727,13 @@
         <v>545</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I43" s="53" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J43" s="59" t="s">
         <v>550</v>
@@ -9783,7 +9742,7 @@
         <v>2496053978349.4302</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>127</v>
       </c>
@@ -9803,13 +9762,13 @@
         <v>414</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I44" s="53" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J44" s="59" t="s">
         <v>519</v>
@@ -9818,7 +9777,7 @@
         <v>467312947943.87799</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>138</v>
       </c>
@@ -9838,13 +9797,13 @@
         <v>554</v>
       </c>
       <c r="G45" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I45" s="53" t="s">
         <v>731</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>732</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>733</v>
       </c>
       <c r="J45" s="59" t="s">
         <v>558</v>
@@ -9853,7 +9812,7 @@
         <v>504900117973.34003</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>130</v>
       </c>
@@ -9873,13 +9832,13 @@
         <v>414</v>
       </c>
       <c r="G46" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H46" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I46" s="53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J46" s="59" t="s">
         <v>500</v>
@@ -9888,7 +9847,7 @@
         <v>550565654867.54797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>128</v>
       </c>
@@ -9908,13 +9867,13 @@
         <v>414</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I47" s="53" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J47" s="59" t="s">
         <v>521</v>
@@ -9923,7 +9882,7 @@
         <v>1088366320151.37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>129</v>
       </c>
@@ -9943,13 +9902,13 @@
         <v>414</v>
       </c>
       <c r="G48" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I48" s="53" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J48" s="59" t="s">
         <v>503</v>
@@ -9958,7 +9917,7 @@
         <v>468186948532.71802</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>179</v>
       </c>
@@ -9978,13 +9937,13 @@
         <v>414</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I49" s="53" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J49" s="59" t="s">
         <v>474</v>
@@ -9993,7 +9952,7 @@
         <v>221553532852.58401</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="52">
         <v>131</v>
       </c>
@@ -10013,13 +9972,13 @@
         <v>554</v>
       </c>
       <c r="G50" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H50" s="53" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I50" s="53" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J50" s="59" t="s">
         <v>568</v>
@@ -10028,7 +9987,7 @@
         <v>361270756415.04303</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="52">
         <v>132</v>
       </c>
@@ -10048,13 +10007,13 @@
         <v>554</v>
       </c>
       <c r="G51" s="53" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H51" s="53" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I51" s="53" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J51" s="59" t="s">
         <v>567</v>
@@ -10063,7 +10022,7 @@
         <v>448330060091.91101</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="52">
         <v>133</v>
       </c>
@@ -10083,13 +10042,13 @@
         <v>545</v>
       </c>
       <c r="G52" s="53" t="s">
+        <v>725</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I52" s="53" t="s">
         <v>727</v>
-      </c>
-      <c r="H52" s="53" t="s">
-        <v>728</v>
-      </c>
-      <c r="I52" s="53" t="s">
-        <v>729</v>
       </c>
       <c r="J52" s="59" t="s">
         <v>551</v>
@@ -10098,7 +10057,7 @@
         <v>1083086415270.52</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="52">
         <v>134</v>
       </c>
@@ -10118,13 +10077,13 @@
         <v>414</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H53" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I53" s="53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J53" s="59" t="s">
         <v>497</v>
@@ -10133,7 +10092,7 @@
         <v>1147419312303.3899</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="52">
         <v>135</v>
       </c>
@@ -10153,13 +10112,13 @@
         <v>554</v>
       </c>
       <c r="G54" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I54" s="53" t="s">
         <v>731</v>
-      </c>
-      <c r="H54" s="53" t="s">
-        <v>732</v>
-      </c>
-      <c r="I54" s="53" t="s">
-        <v>733</v>
       </c>
       <c r="J54" s="59" t="s">
         <v>557</v>
@@ -10168,7 +10127,7 @@
         <v>569190026492.58606</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="52">
         <v>155</v>
       </c>
@@ -10188,13 +10147,13 @@
         <v>414</v>
       </c>
       <c r="G55" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H55" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I55" s="53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J55" s="59" t="s">
         <v>526</v>
@@ -10203,7 +10162,7 @@
         <v>217121567139.55801</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="52">
         <v>136</v>
       </c>
@@ -10223,13 +10182,13 @@
         <v>414</v>
       </c>
       <c r="G56" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H56" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I56" s="53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J56" s="59" t="s">
         <v>498</v>
@@ -10238,7 +10197,7 @@
         <v>716880734337.01501</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="52">
         <v>144</v>
       </c>
@@ -10258,10 +10217,10 @@
         <v>414</v>
       </c>
       <c r="G57" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I57" s="53" t="s">
         <v>533</v>
@@ -10273,7 +10232,7 @@
         <v>3815618915934.1899</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="52">
         <v>137</v>
       </c>
@@ -10293,13 +10252,13 @@
         <v>414</v>
       </c>
       <c r="G58" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I58" s="53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J58" s="59" t="s">
         <v>499</v>
@@ -10308,7 +10267,7 @@
         <v>412127342882.95001</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="52">
         <v>145</v>
       </c>
@@ -10328,10 +10287,10 @@
         <v>414</v>
       </c>
       <c r="G59" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H59" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I59" s="53" t="s">
         <v>533</v>
@@ -10343,7 +10302,7 @@
         <v>1093012946462.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="52">
         <v>146</v>
       </c>
@@ -10363,13 +10322,13 @@
         <v>414</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H60" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I60" s="53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J60" s="59" t="s">
         <v>424</v>
@@ -10378,7 +10337,7 @@
         <v>70014038601.646103</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="52">
         <v>147</v>
       </c>
@@ -10398,13 +10357,13 @@
         <v>414</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H61" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I61" s="53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J61" s="59" t="s">
         <v>426</v>
@@ -10413,7 +10372,7 @@
         <v>88359698256.121002</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="52">
         <v>148</v>
       </c>
@@ -10433,13 +10392,13 @@
         <v>414</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H62" s="53" t="s">
+        <v>745</v>
+      </c>
+      <c r="I62" s="53" t="s">
         <v>747</v>
-      </c>
-      <c r="I62" s="53" t="s">
-        <v>749</v>
       </c>
       <c r="J62" s="59" t="s">
         <v>429</v>
@@ -10448,7 +10407,7 @@
         <v>171992691258.642</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="52">
         <v>149</v>
       </c>
@@ -10468,13 +10427,13 @@
         <v>414</v>
       </c>
       <c r="G63" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H63" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I63" s="53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J63" s="59" t="s">
         <v>428</v>
@@ -10483,7 +10442,7 @@
         <v>412234431658.54602</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>150</v>
       </c>
@@ -10503,13 +10462,13 @@
         <v>414</v>
       </c>
       <c r="G64" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H64" s="53" t="s">
+        <v>745</v>
+      </c>
+      <c r="I64" s="53" t="s">
         <v>747</v>
-      </c>
-      <c r="I64" s="53" t="s">
-        <v>749</v>
       </c>
       <c r="J64" s="59" t="s">
         <v>430</v>
@@ -10518,7 +10477,7 @@
         <v>186307407391.84601</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>139</v>
       </c>
@@ -10538,13 +10497,13 @@
         <v>554</v>
       </c>
       <c r="G65" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="H65" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="I65" s="53" t="s">
         <v>731</v>
-      </c>
-      <c r="H65" s="53" t="s">
-        <v>732</v>
-      </c>
-      <c r="I65" s="53" t="s">
-        <v>733</v>
       </c>
       <c r="J65" s="59" t="s">
         <v>560</v>
@@ -10553,7 +10512,7 @@
         <v>10566518729291.9</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>140</v>
       </c>
@@ -10573,13 +10532,13 @@
         <v>414</v>
       </c>
       <c r="G66" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H66" s="53" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I66" s="53" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J66" s="59" t="s">
         <v>522</v>
@@ -10588,7 +10547,7 @@
         <v>1519799815516.1599</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>141</v>
       </c>
@@ -10608,13 +10567,13 @@
         <v>545</v>
       </c>
       <c r="G67" s="53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H67" s="53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I67" s="53" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J67" s="59" t="s">
         <v>548</v>
@@ -10623,7 +10582,7 @@
         <v>1559667064619.3501</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="52">
         <v>142</v>
       </c>
@@ -10643,13 +10602,13 @@
         <v>545</v>
       </c>
       <c r="G68" s="53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H68" s="53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I68" s="53" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J68" s="59" t="s">
         <v>547</v>
@@ -10658,7 +10617,7 @@
         <v>4594091372824.0801</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="52">
         <v>143</v>
       </c>
@@ -10678,13 +10637,13 @@
         <v>545</v>
       </c>
       <c r="G69" s="53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H69" s="53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I69" s="53" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J69" s="59" t="s">
         <v>549</v>
@@ -10693,7 +10652,7 @@
         <v>1174975618182.74</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="52">
         <v>154</v>
       </c>
@@ -10713,13 +10672,13 @@
         <v>414</v>
       </c>
       <c r="G70" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H70" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I70" s="53" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J70" s="59" t="s">
         <v>530</v>
@@ -10728,7 +10687,7 @@
         <v>175826164398.97601</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="52">
         <v>151</v>
       </c>
@@ -10748,13 +10707,13 @@
         <v>414</v>
       </c>
       <c r="G71" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H71" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I71" s="53" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J71" s="59" t="s">
         <v>434</v>
@@ -10763,7 +10722,7 @@
         <v>409645550250.66699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="52">
         <v>152</v>
       </c>
@@ -10783,13 +10742,13 @@
         <v>414</v>
       </c>
       <c r="G72" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H72" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I72" s="53" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J72" s="59" t="s">
         <v>436</v>
@@ -10798,7 +10757,7 @@
         <v>140872407131.34</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="52">
         <v>153</v>
       </c>
@@ -10818,13 +10777,13 @@
         <v>414</v>
       </c>
       <c r="G73" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H73" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I73" s="53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J73" s="59" t="s">
         <v>524</v>
@@ -10833,7 +10792,7 @@
         <v>177437783206.397</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="52">
         <v>156</v>
       </c>
@@ -10853,13 +10812,13 @@
         <v>414</v>
       </c>
       <c r="G74" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H74" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I74" s="53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J74" s="59" t="s">
         <v>527</v>
@@ -10868,7 +10827,7 @@
         <v>223244675125.655</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
         <v>157</v>
       </c>
@@ -10888,13 +10847,13 @@
         <v>414</v>
       </c>
       <c r="G75" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H75" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I75" s="53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J75" s="59" t="s">
         <v>528</v>
@@ -10903,7 +10862,7 @@
         <v>226608326184.94299</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="52">
         <v>167</v>
       </c>
@@ -10923,13 +10882,13 @@
         <v>414</v>
       </c>
       <c r="G76" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H76" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I76" s="53" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J76" s="59" t="s">
         <v>531</v>
@@ -10938,7 +10897,7 @@
         <v>197939868755.13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="52">
         <v>158</v>
       </c>
@@ -10958,13 +10917,13 @@
         <v>414</v>
       </c>
       <c r="G77" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H77" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I77" s="53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J77" s="59" t="s">
         <v>529</v>
@@ -10973,7 +10932,7 @@
         <v>357712169818.44</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="52">
         <v>161</v>
       </c>
@@ -10993,13 +10952,13 @@
         <v>414</v>
       </c>
       <c r="G78" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H78" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I78" s="53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J78" s="59" t="s">
         <v>486</v>
@@ -11008,7 +10967,7 @@
         <v>34964551008.014603</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="52">
         <v>162</v>
       </c>
@@ -11028,13 +10987,13 @@
         <v>414</v>
       </c>
       <c r="G79" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H79" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I79" s="53" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J79" s="59" t="s">
         <v>457</v>
@@ -11043,7 +11002,7 @@
         <v>1042053158223.9301</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="52">
         <v>165</v>
       </c>
@@ -11063,10 +11022,10 @@
         <v>414</v>
       </c>
       <c r="G80" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H80" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I80" s="53" t="s">
         <v>539</v>
@@ -11078,7 +11037,7 @@
         <v>3491072379995.2798</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="52">
         <v>159</v>
       </c>
@@ -11098,13 +11057,13 @@
         <v>414</v>
       </c>
       <c r="G81" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H81" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I81" s="53" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J81" s="59" t="s">
         <v>490</v>
@@ -11113,7 +11072,7 @@
         <v>167971393625.767</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="52">
         <v>160</v>
       </c>
@@ -11133,13 +11092,13 @@
         <v>414</v>
       </c>
       <c r="G82" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H82" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I82" s="53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J82" s="59" t="s">
         <v>487</v>
@@ -11148,7 +11107,7 @@
         <v>92763573597.969696</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="52">
         <v>163</v>
       </c>
@@ -11168,13 +11127,13 @@
         <v>414</v>
       </c>
       <c r="G83" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H83" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I83" s="53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J83" s="59" t="s">
         <v>489</v>
@@ -11183,7 +11142,7 @@
         <v>303932170699.63702</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="52">
         <v>164</v>
       </c>
@@ -11203,13 +11162,13 @@
         <v>414</v>
       </c>
       <c r="G84" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H84" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I84" s="53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J84" s="59" t="s">
         <v>525</v>
@@ -11218,7 +11177,7 @@
         <v>228987010239.69601</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="52">
         <v>168</v>
       </c>
@@ -11238,13 +11197,13 @@
         <v>414</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H85" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I85" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J85" s="59" t="s">
         <v>483</v>
@@ -11253,7 +11212,7 @@
         <v>99469988428.181198</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="52">
         <v>169</v>
       </c>
@@ -11273,13 +11232,13 @@
         <v>414</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H86" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I86" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J86" s="59" t="s">
         <v>482</v>
@@ -11288,7 +11247,7 @@
         <v>57004067470.880302</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="52">
         <v>170</v>
       </c>
@@ -11308,13 +11267,13 @@
         <v>414</v>
       </c>
       <c r="G87" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H87" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I87" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J87" s="59" t="s">
         <v>480</v>
@@ -11323,7 +11282,7 @@
         <v>18973216547.926701</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="52">
         <v>171</v>
       </c>
@@ -11343,13 +11302,13 @@
         <v>414</v>
       </c>
       <c r="G88" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H88" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I88" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J88" s="59" t="s">
         <v>481</v>
@@ -11358,7 +11317,7 @@
         <v>47663203973.073997</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="52">
         <v>172</v>
       </c>
@@ -11378,13 +11337,13 @@
         <v>414</v>
       </c>
       <c r="G89" s="53" t="s">
+        <v>722</v>
+      </c>
+      <c r="H89" s="53" t="s">
+        <v>723</v>
+      </c>
+      <c r="I89" s="53" t="s">
         <v>724</v>
-      </c>
-      <c r="H89" s="53" t="s">
-        <v>725</v>
-      </c>
-      <c r="I89" s="53" t="s">
-        <v>726</v>
       </c>
       <c r="J89" s="59" t="s">
         <v>460</v>
@@ -11393,7 +11352,7 @@
         <v>856596953847.15503</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="52">
         <v>173</v>
       </c>
@@ -11413,13 +11372,13 @@
         <v>414</v>
       </c>
       <c r="G90" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H90" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I90" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J90" s="59" t="s">
         <v>484</v>
@@ -11428,7 +11387,7 @@
         <v>214505346084.98099</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="52">
         <v>174</v>
       </c>
@@ -11448,13 +11407,13 @@
         <v>414</v>
       </c>
       <c r="G91" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H91" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I91" s="53" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J91" s="59" t="s">
         <v>470</v>
@@ -11463,7 +11422,7 @@
         <v>64302618029.027702</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="52">
         <v>175</v>
       </c>
@@ -11483,13 +11442,13 @@
         <v>414</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H92" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I92" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J92" s="59" t="s">
         <v>477</v>
@@ -11498,7 +11457,7 @@
         <v>88580563653.370895</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="52">
         <v>176</v>
       </c>
@@ -11518,13 +11477,13 @@
         <v>414</v>
       </c>
       <c r="G93" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H93" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I93" s="53" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J93" s="59" t="s">
         <v>467</v>
@@ -11533,7 +11492,7 @@
         <v>380161918817.17499</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="52">
         <v>177</v>
       </c>
@@ -11553,13 +11512,13 @@
         <v>414</v>
       </c>
       <c r="G94" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H94" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I94" s="53" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J94" s="59" t="s">
         <v>466</v>
@@ -11568,7 +11527,7 @@
         <v>20488533249.959</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="52">
         <v>178</v>
       </c>
@@ -11588,13 +11547,13 @@
         <v>414</v>
       </c>
       <c r="G95" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H95" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I95" s="53" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J95" s="59" t="s">
         <v>469</v>
@@ -11603,7 +11562,7 @@
         <v>281384523981.08502</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="52">
         <v>180</v>
       </c>
@@ -11623,13 +11582,13 @@
         <v>414</v>
       </c>
       <c r="G96" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H96" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I96" s="53" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J96" s="59" t="s">
         <v>472</v>
@@ -11638,7 +11597,7 @@
         <v>192204603063.90302</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="52">
         <v>181</v>
       </c>
@@ -11658,13 +11617,13 @@
         <v>414</v>
       </c>
       <c r="G97" s="53" t="s">
+        <v>722</v>
+      </c>
+      <c r="H97" s="53" t="s">
+        <v>723</v>
+      </c>
+      <c r="I97" s="53" t="s">
         <v>724</v>
-      </c>
-      <c r="H97" s="53" t="s">
-        <v>725</v>
-      </c>
-      <c r="I97" s="53" t="s">
-        <v>726</v>
       </c>
       <c r="J97" s="59" t="s">
         <v>458</v>
@@ -11673,7 +11632,7 @@
         <v>1070537069066.22</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="52">
         <v>182</v>
       </c>
@@ -11693,13 +11652,13 @@
         <v>414</v>
       </c>
       <c r="G98" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H98" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I98" s="53" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J98" s="59" t="s">
         <v>471</v>
@@ -11708,7 +11667,7 @@
         <v>378761117704.06201</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="52">
         <v>183</v>
       </c>
@@ -11728,13 +11687,13 @@
         <v>414</v>
       </c>
       <c r="G99" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H99" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I99" s="53" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J99" s="59" t="s">
         <v>462</v>
@@ -11743,7 +11702,7 @@
         <v>673865498249.81995</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="52">
         <v>184</v>
       </c>
@@ -11763,13 +11722,13 @@
         <v>414</v>
       </c>
       <c r="G100" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H100" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I100" s="53" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J100" s="59" t="s">
         <v>463</v>
@@ -11778,7 +11737,7 @@
         <v>1432904033316.6101</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="52">
         <v>185</v>
       </c>
@@ -11798,13 +11757,13 @@
         <v>414</v>
       </c>
       <c r="G101" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H101" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I101" s="53" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J101" s="59" t="s">
         <v>464</v>
@@ -11813,7 +11772,7 @@
         <v>1125175349493.0901</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="52">
         <v>186</v>
       </c>
@@ -11833,13 +11792,13 @@
         <v>414</v>
       </c>
       <c r="G102" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H102" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I102" s="53" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J102" s="59" t="s">
         <v>454</v>
@@ -11848,7 +11807,7 @@
         <v>66867090358.895798</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="52">
         <v>187</v>
       </c>
@@ -11868,13 +11827,13 @@
         <v>414</v>
       </c>
       <c r="G103" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H103" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I103" s="53" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J103" s="59" t="s">
         <v>461</v>
@@ -11883,7 +11842,7 @@
         <v>660096564456.20605</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="52">
         <v>188</v>
       </c>
@@ -11903,13 +11862,13 @@
         <v>414</v>
       </c>
       <c r="G104" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H104" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I104" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J104" s="59" t="s">
         <v>479</v>
@@ -11918,7 +11877,7 @@
         <v>56394287388.047401</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="52">
         <v>189</v>
       </c>
@@ -11938,13 +11897,13 @@
         <v>414</v>
       </c>
       <c r="G105" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H105" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I105" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J105" s="59" t="s">
         <v>478</v>
@@ -11953,7 +11912,7 @@
         <v>33233430849.162498</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="52">
         <v>190</v>
       </c>
@@ -11973,13 +11932,13 @@
         <v>414</v>
       </c>
       <c r="G106" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H106" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I106" s="53" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J106" s="59" t="s">
         <v>473</v>
@@ -11988,7 +11947,7 @@
         <v>237092006623.62201</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="52">
         <v>198</v>
       </c>
@@ -12008,13 +11967,13 @@
         <v>414</v>
       </c>
       <c r="G107" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H107" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I107" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J107" s="59" t="s">
         <v>476</v>
@@ -12023,7 +11982,7 @@
         <v>35977798773.6381</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="52">
         <v>206</v>
       </c>
@@ -12043,13 +12002,13 @@
         <v>414</v>
       </c>
       <c r="G108" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H108" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I108" s="53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J108" s="59" t="s">
         <v>488</v>
@@ -12058,7 +12017,7 @@
         <v>181908371177.44901</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="52">
         <v>199</v>
       </c>
@@ -12078,13 +12037,13 @@
         <v>414</v>
       </c>
       <c r="G109" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H109" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I109" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J109" s="59" t="s">
         <v>475</v>
@@ -12093,7 +12052,7 @@
         <v>50225031975.403503</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="52">
         <v>200</v>
       </c>
@@ -12113,13 +12072,13 @@
         <v>414</v>
       </c>
       <c r="G110" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H110" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I110" s="53" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J110" s="59" t="s">
         <v>468</v>
@@ -12128,7 +12087,7 @@
         <v>269900335719.76599</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="52">
         <v>201</v>
       </c>
@@ -12148,13 +12107,13 @@
         <v>414</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H111" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I111" s="53" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J111" s="59" t="s">
         <v>455</v>
@@ -12163,7 +12122,7 @@
         <v>1557131414660.24</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="52">
         <v>202</v>
       </c>
@@ -12183,13 +12142,13 @@
         <v>414</v>
       </c>
       <c r="G112" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H112" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I112" s="53" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J112" s="59" t="s">
         <v>465</v>
@@ -12198,7 +12157,7 @@
         <v>54943741725.1642</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="52">
         <v>207</v>
       </c>
@@ -12218,13 +12177,13 @@
         <v>414</v>
       </c>
       <c r="G113" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H113" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I113" s="53" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J113" s="59" t="s">
         <v>435</v>
@@ -12233,7 +12192,7 @@
         <v>283002571984.78198</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="52">
         <v>208</v>
       </c>
@@ -12253,13 +12212,13 @@
         <v>414</v>
       </c>
       <c r="G114" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H114" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I114" s="53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J114" s="59" t="s">
         <v>441</v>
@@ -12268,7 +12227,7 @@
         <v>369835370887.03497</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="52">
         <v>212</v>
       </c>
@@ -12288,13 +12247,13 @@
         <v>414</v>
       </c>
       <c r="G115" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H115" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I115" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J115" s="59" t="s">
         <v>450</v>
@@ -12303,7 +12262,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="52">
         <v>213</v>
       </c>
@@ -12323,13 +12282,13 @@
         <v>414</v>
       </c>
       <c r="G116" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H116" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I116" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J116" s="59" t="s">
         <v>451</v>
@@ -12338,7 +12297,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="52">
         <v>214</v>
       </c>
@@ -12358,13 +12317,13 @@
         <v>414</v>
       </c>
       <c r="G117" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H117" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I117" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J117" s="59" t="s">
         <v>452</v>
@@ -12373,7 +12332,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="52">
         <v>209</v>
       </c>
@@ -12393,13 +12352,13 @@
         <v>414</v>
       </c>
       <c r="G118" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H118" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I118" s="53" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J118" s="59" t="s">
         <v>445</v>
@@ -12408,7 +12367,7 @@
         <v>175083893789.70801</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="52">
         <v>223</v>
       </c>
@@ -12428,13 +12387,13 @@
         <v>414</v>
       </c>
       <c r="G119" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I119" s="53" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J119" s="59" t="s">
         <v>432</v>
@@ -12443,7 +12402,7 @@
         <v>323510181895.84003</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="52">
         <v>224</v>
       </c>
@@ -12463,13 +12422,13 @@
         <v>414</v>
       </c>
       <c r="G120" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H120" s="53" t="s">
+        <v>745</v>
+      </c>
+      <c r="I120" s="53" t="s">
         <v>747</v>
-      </c>
-      <c r="I120" s="53" t="s">
-        <v>749</v>
       </c>
       <c r="J120" s="59" t="s">
         <v>431</v>
@@ -12478,7 +12437,7 @@
         <v>283644209388.61102</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="52">
         <v>210</v>
       </c>
@@ -12498,13 +12457,13 @@
         <v>414</v>
       </c>
       <c r="G121" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H121" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I121" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J121" s="59" t="s">
         <v>447</v>
@@ -12513,7 +12472,7 @@
         <v>117788977881.27699</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="52">
         <v>211</v>
       </c>
@@ -12533,13 +12492,13 @@
         <v>414</v>
       </c>
       <c r="G122" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H122" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I122" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J122" s="59" t="s">
         <v>449</v>
@@ -12548,7 +12507,7 @@
         <v>197525517168.90601</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="52">
         <v>215</v>
       </c>
@@ -12568,13 +12527,13 @@
         <v>414</v>
       </c>
       <c r="G123" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H123" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I123" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J123" s="59" t="s">
         <v>453</v>
@@ -12583,7 +12542,7 @@
         <v>316040828249.81299</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="52">
         <v>216</v>
       </c>
@@ -12603,13 +12562,13 @@
         <v>414</v>
       </c>
       <c r="G124" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H124" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I124" s="53" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J124" s="59" t="s">
         <v>413</v>
@@ -12618,7 +12577,7 @@
         <v>347878663095.66901</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="52">
         <v>217</v>
       </c>
@@ -12638,13 +12597,13 @@
         <v>414</v>
       </c>
       <c r="G125" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H125" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I125" s="53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J125" s="59" t="s">
         <v>417</v>
@@ -12653,7 +12612,7 @@
         <v>308877577184.93103</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="52">
         <v>218</v>
       </c>
@@ -12673,13 +12632,13 @@
         <v>414</v>
       </c>
       <c r="G126" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H126" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I126" s="53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J126" s="59" t="s">
         <v>420</v>
@@ -12688,7 +12647,7 @@
         <v>64571421054.972198</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="52">
         <v>219</v>
       </c>
@@ -12708,13 +12667,13 @@
         <v>414</v>
       </c>
       <c r="G127" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H127" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I127" s="53" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J127" s="59" t="s">
         <v>415</v>
@@ -12723,7 +12682,7 @@
         <v>234167270163.60999</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="52">
         <v>220</v>
       </c>
@@ -12743,13 +12702,13 @@
         <v>414</v>
       </c>
       <c r="G128" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H128" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I128" s="53" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J128" s="59" t="s">
         <v>423</v>
@@ -12758,7 +12717,7 @@
         <v>55224442104.467201</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="52">
         <v>235</v>
       </c>
@@ -12778,10 +12737,10 @@
         <v>414</v>
       </c>
       <c r="G129" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H129" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I129" s="53" t="s">
         <v>539</v>
@@ -12793,7 +12752,7 @@
         <v>990785388531.55896</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="52">
         <v>236</v>
       </c>
@@ -12813,10 +12772,10 @@
         <v>414</v>
       </c>
       <c r="G130" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H130" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I130" s="53" t="s">
         <v>536</v>
@@ -12828,7 +12787,7 @@
         <v>1810986046022.3799</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="52">
         <v>221</v>
       </c>
@@ -12848,13 +12807,13 @@
         <v>414</v>
       </c>
       <c r="G131" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H131" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I131" s="53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J131" s="59" t="s">
         <v>442</v>
@@ -12863,7 +12822,7 @@
         <v>237335203773.12299</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="52">
         <v>237</v>
       </c>
@@ -12883,13 +12842,13 @@
         <v>414</v>
       </c>
       <c r="G132" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H132" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I132" s="53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J132" s="59" t="s">
         <v>485</v>
@@ -12898,7 +12857,7 @@
         <v>62661971418.134804</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="52">
         <v>222</v>
       </c>
@@ -12918,13 +12877,13 @@
         <v>414</v>
       </c>
       <c r="G133" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H133" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I133" s="53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J133" s="59" t="s">
         <v>439</v>
@@ -12933,7 +12892,7 @@
         <v>83188988724.987793</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="52">
         <v>225</v>
       </c>
@@ -12953,13 +12912,13 @@
         <v>414</v>
       </c>
       <c r="G134" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H134" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I134" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J134" s="59" t="s">
         <v>446</v>
@@ -12968,7 +12927,7 @@
         <v>48859563881.077003</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="52">
         <v>226</v>
       </c>
@@ -12988,13 +12947,13 @@
         <v>414</v>
       </c>
       <c r="G135" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H135" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I135" s="53" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J135" s="59" t="s">
         <v>448</v>
@@ -13003,7 +12962,7 @@
         <v>123208527386.939</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="52">
         <v>227</v>
       </c>
@@ -13023,13 +12982,13 @@
         <v>414</v>
       </c>
       <c r="G136" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H136" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I136" s="53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J136" s="59" t="s">
         <v>438</v>
@@ -13038,7 +12997,7 @@
         <v>41032406056.970802</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="52">
         <v>228</v>
       </c>
@@ -13058,13 +13017,13 @@
         <v>414</v>
       </c>
       <c r="G137" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H137" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I137" s="53" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J137" s="59" t="s">
         <v>433</v>
@@ -13073,7 +13032,7 @@
         <v>191421664789.12399</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="52">
         <v>229</v>
       </c>
@@ -13093,13 +13052,13 @@
         <v>414</v>
       </c>
       <c r="G138" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H138" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I138" s="53" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J138" s="59" t="s">
         <v>437</v>
@@ -13108,7 +13067,7 @@
         <v>101973747281.634</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="52">
         <v>230</v>
       </c>
@@ -13128,13 +13087,13 @@
         <v>414</v>
       </c>
       <c r="G139" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H139" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I139" s="53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J139" s="59" t="s">
         <v>443</v>
@@ -13143,7 +13102,7 @@
         <v>154258864117.31601</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="52">
         <v>231</v>
       </c>
@@ -13163,13 +13122,13 @@
         <v>414</v>
       </c>
       <c r="G140" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H140" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I140" s="53" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J140" s="59" t="s">
         <v>444</v>
@@ -13178,7 +13137,7 @@
         <v>58396273396.565201</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="52">
         <v>232</v>
       </c>
@@ -13198,13 +13157,13 @@
         <v>414</v>
       </c>
       <c r="G141" s="53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H141" s="53" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I141" s="53" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J141" s="59" t="s">
         <v>440</v>
@@ -13213,7 +13172,7 @@
         <v>111947005601.72501</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="52">
         <v>233</v>
       </c>
@@ -13233,10 +13192,10 @@
         <v>414</v>
       </c>
       <c r="G142" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H142" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I142" s="53" t="s">
         <v>542</v>
@@ -13248,7 +13207,7 @@
         <v>418673286355.03802</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="52">
         <v>234</v>
       </c>
@@ -13268,10 +13227,10 @@
         <v>414</v>
       </c>
       <c r="G143" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H143" s="53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I143" s="53" t="s">
         <v>536</v>
@@ -13285,8 +13244,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1" xr:uid="{CFA5A39B-9D9D-483D-AB76-8FD157A00820}"/>
-    <hyperlink ref="Q5" r:id="rId2" xr:uid="{AE7EB0A2-682A-47FC-8B9B-2A80C52C98EB}"/>
+    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="Q5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
@@ -13295,19 +13254,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="11.3984375" style="43"/>
+    <col min="1" max="1024" width="11.42578125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>570</v>
       </c>
@@ -13316,7 +13275,7 @@
       </c>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>572</v>
       </c>
@@ -13324,7 +13283,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>574</v>
       </c>
@@ -13332,7 +13291,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>576</v>
       </c>
@@ -13340,7 +13299,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>578</v>
       </c>
@@ -13348,16 +13307,16 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="61" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -13367,21 +13326,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.3984375" style="45"/>
-    <col min="3" max="3" width="74.1328125" style="45" customWidth="1"/>
-    <col min="4" max="1024" width="11.3984375" style="45"/>
+    <col min="1" max="2" width="11.42578125" style="45"/>
+    <col min="3" max="3" width="74.140625" style="45" customWidth="1"/>
+    <col min="4" max="1024" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>580</v>
       </c>
@@ -13392,7 +13351,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>583</v>
       </c>
@@ -13403,7 +13362,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>586</v>
       </c>
@@ -13414,7 +13373,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>589</v>
       </c>
@@ -13425,7 +13384,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>592</v>
       </c>
@@ -13443,20 +13402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="3" width="32.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>595</v>
       </c>
@@ -13488,7 +13447,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -13516,7 +13475,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -13544,7 +13503,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -13572,7 +13531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -13600,7 +13559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -13628,7 +13587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -13658,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -13688,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -13718,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -13744,7 +13703,7 @@
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -13772,7 +13731,7 @@
       </c>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -13800,7 +13759,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -13826,7 +13785,7 @@
       </c>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="1:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -13856,7 +13815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -13886,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -13912,7 +13871,7 @@
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -13938,7 +13897,7 @@
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -13964,7 +13923,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -13992,7 +13951,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -14020,7 +13979,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -14048,7 +14007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -14076,7 +14035,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -14104,7 +14063,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -14132,7 +14091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -14160,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -14188,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -14222,20 +14181,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="65.3984375" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>644</v>
       </c>
@@ -14243,7 +14202,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>646</v>
       </c>
@@ -14251,7 +14210,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>620</v>
       </c>
@@ -14259,7 +14218,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>649</v>
       </c>
@@ -14267,7 +14226,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -14275,7 +14234,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>652</v>
       </c>
@@ -14283,7 +14242,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>654</v>
       </c>
@@ -14291,7 +14250,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>656</v>
       </c>
@@ -14299,7 +14258,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>658</v>
       </c>
@@ -14307,7 +14266,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>660</v>
       </c>
@@ -14315,7 +14274,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>662</v>
       </c>
@@ -14323,7 +14282,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>664</v>
       </c>
@@ -14331,7 +14290,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>666</v>
       </c>
@@ -14339,7 +14298,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>668</v>
       </c>
@@ -14347,7 +14306,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>670</v>
       </c>
@@ -14355,7 +14314,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -14363,7 +14322,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>674</v>
       </c>
@@ -14371,7 +14330,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>676</v>
       </c>
@@ -14379,7 +14338,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>678</v>
       </c>
@@ -14387,7 +14346,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>680</v>
       </c>
@@ -14395,7 +14354,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>607</v>
       </c>
@@ -14403,7 +14362,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>623</v>
       </c>
@@ -14411,7 +14370,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>684</v>
       </c>
@@ -14419,7 +14378,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>612</v>
       </c>
@@ -14427,7 +14386,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>610</v>
       </c>
@@ -14435,7 +14394,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>688</v>
       </c>
@@ -14450,7 +14409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -14460,16 +14419,16 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="45.1328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.3984375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="19" customWidth="1"/>
     <col min="4" max="4" width="23" style="19" customWidth="1"/>
-    <col min="5" max="1024" width="11.3984375" style="19"/>
+    <col min="5" max="1024" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -14480,7 +14439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
@@ -14491,15 +14450,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
     </row>
   </sheetData>
@@ -14510,7 +14469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF77933C"/>
   </sheetPr>
@@ -14520,20 +14479,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="23.3984375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="23.42578125" style="25" customWidth="1"/>
     <col min="3" max="3" width="24" style="25" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="20.73046875" style="25" customWidth="1"/>
-    <col min="7" max="8" width="15.3984375" style="25" customWidth="1"/>
-    <col min="9" max="10" width="16.265625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="15.73046875" style="25" customWidth="1"/>
-    <col min="12" max="1023" width="9.1328125" style="25"/>
+    <col min="4" max="5" width="13.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="25" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" style="25" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="25" customWidth="1"/>
+    <col min="12" max="1023" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -14568,7 +14527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -14577,7 +14536,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -14586,7 +14545,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -14595,7 +14554,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -14604,7 +14563,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -14613,7 +14572,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -14622,7 +14581,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -14631,7 +14590,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -14640,7 +14599,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -14649,7 +14608,7 @@
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -14658,7 +14617,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -14667,7 +14626,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -14676,7 +14635,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -14685,7 +14644,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -14694,7 +14653,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -14703,7 +14662,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -14712,7 +14671,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -14721,7 +14680,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -14730,7 +14689,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -14739,7 +14698,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -14748,7 +14707,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -14757,7 +14716,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -14766,7 +14725,7 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -14775,7 +14734,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -14785,28 +14744,19 @@
       <c r="H25" s="29"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>H2:H25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF604A7B"/>
   </sheetPr>
@@ -14816,27 +14766,27 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
     <col min="2" max="2" width="10" style="25" customWidth="1"/>
-    <col min="3" max="9" width="12.265625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="25"/>
+    <col min="3" max="9" width="12.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="25"/>
     <col min="11" max="11" width="15" style="25" customWidth="1"/>
-    <col min="12" max="13" width="9.1328125" style="25"/>
-    <col min="14" max="14" width="11.86328125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="12.1328125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="18.265625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="15.3984375" style="25" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="25"/>
+    <col min="14" max="14" width="11.85546875" style="25" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="25" customWidth="1"/>
     <col min="18" max="18" width="24" style="25" customWidth="1"/>
-    <col min="19" max="19" width="14.86328125" style="25" customWidth="1"/>
-    <col min="20" max="20" width="14.1328125" style="25" customWidth="1"/>
-    <col min="21" max="22" width="14.59765625" style="25" customWidth="1"/>
-    <col min="23" max="1023" width="9.1328125" style="25"/>
-    <col min="1024" max="1024" width="11.59765625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="25" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="25" customWidth="1"/>
+    <col min="23" max="1023" width="9.140625" style="25"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -14934,7 +14884,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -14967,7 +14917,7 @@
       <c r="AE2"/>
       <c r="AF2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -14982,7 +14932,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -14997,7 +14947,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="28"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -15012,7 +14962,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="28"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -15027,7 +14977,7 @@
       <c r="M6"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="28"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -15042,7 +14992,7 @@
       <c r="M7"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -15057,7 +15007,7 @@
       <c r="M8"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -15072,7 +15022,7 @@
       <c r="M9"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -15087,7 +15037,7 @@
       <c r="M10"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -15102,7 +15052,7 @@
       <c r="M11"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -15117,7 +15067,7 @@
       <c r="M12"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -15132,7 +15082,7 @@
       <c r="M13"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="28"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -15147,7 +15097,7 @@
       <c r="M14"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="28"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -15162,7 +15112,7 @@
       <c r="M15"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -15177,7 +15127,7 @@
       <c r="M16"/>
       <c r="N16" s="31"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -15192,7 +15142,7 @@
       <c r="M17"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="28"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -15207,7 +15157,7 @@
       <c r="M18"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -15222,7 +15172,7 @@
       <c r="M19"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -15237,7 +15187,7 @@
       <c r="M20"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="28"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -15252,7 +15202,7 @@
       <c r="M21"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="28"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -15267,7 +15217,7 @@
       <c r="M22"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="28"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -15282,7 +15232,7 @@
       <c r="M23"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="28"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -15297,7 +15247,7 @@
       <c r="M24"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="28"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -15312,7 +15262,7 @@
       <c r="M25"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="28"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -15327,7 +15277,7 @@
       <c r="M26"/>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="28"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -15342,7 +15292,7 @@
       <c r="M27"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="28"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -15357,7 +15307,7 @@
       <c r="M28"/>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="28"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
@@ -15372,7 +15322,7 @@
       <c r="M29"/>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="28"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -15387,7 +15337,7 @@
       <c r="M30"/>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="28"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -15404,11 +15354,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1001" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1001">
       <formula1>1800</formula1>
       <formula2>2019</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1001">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15420,7 +15370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF604A7B"/>
   </sheetPr>
@@ -15430,27 +15380,27 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="25"/>
-    <col min="3" max="3" width="11.86328125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="18.265625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="25" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="25"/>
+    <col min="3" max="3" width="11.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="25" customWidth="1"/>
     <col min="7" max="7" width="24" style="25" customWidth="1"/>
-    <col min="8" max="9" width="14.86328125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="14.59765625" style="33" customWidth="1"/>
-    <col min="12" max="15" width="9.1328125" style="33"/>
-    <col min="16" max="22" width="9.1328125" style="25"/>
-    <col min="23" max="24" width="29.73046875" style="25" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="33" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="33"/>
+    <col min="16" max="22" width="9.140625" style="25"/>
+    <col min="23" max="24" width="29.7109375" style="25" customWidth="1"/>
     <col min="25" max="25" width="17" style="25" customWidth="1"/>
-    <col min="26" max="26" width="14.86328125" style="25" customWidth="1"/>
-    <col min="27" max="1023" width="9.1328125" style="25"/>
-    <col min="1024" max="1024" width="11.59765625" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="25" customWidth="1"/>
+    <col min="27" max="1023" width="9.140625" style="25"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -15539,7 +15489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -15565,82 +15515,82 @@
       <c r="X2"/>
       <c r="Y2" s="31"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="31"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="31"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="31"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="31"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="31"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="31"/>
     </row>
   </sheetData>
@@ -15651,7 +15601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF604A7B"/>
   </sheetPr>
@@ -15661,22 +15611,22 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="8.265625" style="25" customWidth="1"/>
-    <col min="3" max="4" width="9.1328125" style="25"/>
-    <col min="5" max="5" width="12.59765625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="25"/>
-    <col min="8" max="8" width="12.73046875" style="25" customWidth="1"/>
-    <col min="9" max="30" width="9.1328125" style="25"/>
-    <col min="31" max="31" width="16.1328125" style="25" customWidth="1"/>
-    <col min="32" max="1023" width="9.1328125" style="25"/>
-    <col min="1024" max="1024" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="8.28515625" style="25" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="25"/>
+    <col min="5" max="5" width="12.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="25"/>
+    <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
+    <col min="9" max="30" width="9.140625" style="25"/>
+    <col min="31" max="31" width="16.140625" style="25" customWidth="1"/>
+    <col min="32" max="1023" width="9.140625" style="25"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -15774,7 +15724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -15787,7 +15737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF604A7B"/>
   </sheetPr>
@@ -15797,13 +15747,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.265625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="14" width="9.1328125" customWidth="1"/>
-    <col min="1024" max="1024" width="11.59765625" customWidth="1"/>
+    <col min="7" max="14" width="9.140625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -15910,7 +15860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
@@ -15918,15 +15868,15 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="22.59765625" style="25" customWidth="1"/>
-    <col min="4" max="5" width="15.73046875" style="25" customWidth="1"/>
-    <col min="6" max="1024" width="9.1328125" style="25"/>
-    <col min="1025" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="22.5703125" style="25" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="25" customWidth="1"/>
+    <col min="6" max="1024" width="9.140625" style="25"/>
+    <col min="1025" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>88</v>
       </c>
@@ -16015,7 +15965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -16030,7 +15980,7 @@
       <c r="L2"/>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -16045,7 +15995,7 @@
       <c r="L3"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -16072,29 +16022,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1328125" style="25" customWidth="1"/>
-    <col min="3" max="4" width="7.59765625" style="25" customWidth="1"/>
-    <col min="5" max="13" width="11.59765625" style="25"/>
-    <col min="14" max="14" width="9.1328125" style="25" customWidth="1"/>
-    <col min="15" max="19" width="11.59765625" style="25"/>
-    <col min="20" max="20" width="9.1328125" style="25" customWidth="1"/>
-    <col min="21" max="25" width="11.59765625" style="25"/>
-    <col min="26" max="26" width="9.1328125" style="25" customWidth="1"/>
-    <col min="27" max="1002" width="11.59765625" style="25"/>
-    <col min="1003" max="1024" width="9.1328125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="25" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="25" customWidth="1"/>
+    <col min="5" max="13" width="11.5703125" style="25"/>
+    <col min="14" max="14" width="9.140625" style="25" customWidth="1"/>
+    <col min="15" max="19" width="11.5703125" style="25"/>
+    <col min="20" max="20" width="9.140625" style="25" customWidth="1"/>
+    <col min="21" max="25" width="11.5703125" style="25"/>
+    <col min="26" max="26" width="9.140625" style="25" customWidth="1"/>
+    <col min="27" max="1002" width="11.5703125" style="25"/>
+    <col min="1003" max="1024" width="9.140625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>691</v>
       </c>
@@ -16174,7 +16124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
